--- a/97_enquete/17.xlsx
+++ b/97_enquete/17.xlsx
@@ -1,49 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20060" windowHeight="7940"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Qual curso você está fazendo?</t>
-  </si>
-  <si>
-    <t>Qual a sua formação original?</t>
-  </si>
-  <si>
-    <t>Você é do PPGE?</t>
-  </si>
-  <si>
-    <t>Se você for um aluno externo, de que programa/instituição você é?</t>
-  </si>
-  <si>
-    <t>Você já usou o R antes?</t>
-  </si>
-  <si>
-    <t>Há quanto tempo você usa o R? (número, em anos, aproximado)</t>
-  </si>
-  <si>
-    <t>Você já fez algum curso introdutório à Linguagem R? Se sim:</t>
-  </si>
-  <si>
-    <t>Você já usou alguma linguagem de programação antes?</t>
-  </si>
-  <si>
-    <t>Como você ouviu falar deste curso?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Mestrado</t>
   </si>
@@ -69,14 +47,44 @@
     <t>Relação de disciplinas 2016/1 do PPGE</t>
   </si>
   <si>
-    <t>Aluno</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +98,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,46 +140,35 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,56 +460,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25">
+    <row r="1" spans="1:14" ht="16">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="N1" s="1"/>
     </row>
@@ -499,56 +519,74 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>